--- a/wermitwem.xlsx
+++ b/wermitwem.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Felix Bermpohl</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Andreas Ströhle</t>
@@ -155,7 +158,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>66</t>
+    <t>68</t>
   </si>
   <si>
     <t>12</t>
@@ -164,10 +167,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>83</t>
+    <t>90</t>
   </si>
   <si>
-    <t>33</t>
+    <t>34</t>
   </si>
   <si>
     <t>55</t>
@@ -197,28 +200,28 @@
     <t>4</t>
   </si>
   <si>
-    <t>87</t>
+    <t>94</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>64</t>
+    <t>65</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
-    <t>74</t>
+    <t>82</t>
   </si>
   <si>
-    <t>110</t>
+    <t>119</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
-    <t>46</t>
+    <t>47</t>
   </si>
   <si>
     <t>10</t>
@@ -233,25 +236,19 @@
     <t>9</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>31</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>34</t>
+    <t>40</t>
   </si>
   <si>
-    <t>37</t>
+    <t>44</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>21</t>
@@ -260,43 +257,46 @@
     <t>22</t>
   </si>
   <si>
-    <t>18</t>
+    <t>8</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>69</t>
+    <t>18</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>44</t>
+    <t>72</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
   <si>
     <t>52</t>
   </si>
   <si>
-    <t>81</t>
+    <t>88</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
   <si>
     <t>85</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>56</t>
+    <t>64</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -770,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -784,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -798,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -812,7 +812,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -826,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -840,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -854,7 +854,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -882,7 +882,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -924,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -938,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -952,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -966,7 +966,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -980,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -994,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1008,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1022,7 +1022,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1036,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -1050,7 +1050,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1064,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1078,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1092,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1106,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1134,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1148,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1162,7 +1162,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1176,7 +1176,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1190,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1204,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1221,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1235,7 +1235,7 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1249,7 +1249,7 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1263,7 +1263,7 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1277,7 +1277,7 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1291,7 +1291,7 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1302,10 +1302,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1316,10 +1316,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1330,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1344,10 +1344,10 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1358,10 +1358,10 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1372,10 +1372,10 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1386,10 +1386,10 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1400,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1414,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1428,10 +1428,10 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1442,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1456,10 +1456,10 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1470,7 +1470,7 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1484,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1498,10 +1498,10 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1512,10 +1512,10 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1526,10 +1526,10 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1540,10 +1540,10 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1554,10 +1554,10 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1568,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1582,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1596,10 +1596,10 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1610,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -1624,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1638,7 +1638,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -1652,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -1666,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1680,7 +1680,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -1694,10 +1694,10 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1708,10 +1708,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1722,10 +1722,10 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1736,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1753,7 +1753,7 @@
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1820,10 +1820,10 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1834,7 +1834,7 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -1848,7 +1848,7 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -1862,7 +1862,7 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -1876,7 +1876,7 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -1890,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -1904,7 +1904,7 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -1918,7 +1918,7 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -1932,7 +1932,7 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -1946,7 +1946,7 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -1960,7 +1960,7 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -1974,7 +1974,7 @@
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -1988,7 +1988,7 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2002,7 +2002,7 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -2016,7 +2016,7 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2030,7 +2030,7 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -2044,7 +2044,7 @@
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2058,7 +2058,7 @@
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -2072,10 +2072,10 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2086,7 +2086,7 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2100,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2114,7 +2114,7 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -2128,7 +2128,7 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -2142,7 +2142,7 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -2156,7 +2156,7 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -2170,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -2184,7 +2184,7 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -2198,7 +2198,7 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -2212,10 +2212,10 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2226,10 +2226,10 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2240,7 +2240,7 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -2254,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
@@ -2299,7 +2299,7 @@
         <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2313,7 +2313,7 @@
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2324,10 +2324,10 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2338,10 +2338,10 @@
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2352,7 +2352,7 @@
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
@@ -2366,10 +2366,10 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2380,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
@@ -2394,10 +2394,10 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2408,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
@@ -2422,7 +2422,7 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
@@ -2436,7 +2436,7 @@
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
@@ -2450,7 +2450,7 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -2464,7 +2464,7 @@
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
@@ -2478,7 +2478,7 @@
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
@@ -2492,7 +2492,7 @@
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
@@ -2506,7 +2506,7 @@
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -2520,10 +2520,10 @@
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2534,7 +2534,7 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D135" t="s">
         <v>7</v>
@@ -2548,7 +2548,7 @@
         <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
@@ -2562,7 +2562,7 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D137" t="s">
         <v>7</v>
@@ -2576,10 +2576,10 @@
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2590,7 +2590,7 @@
         <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
@@ -2604,7 +2604,7 @@
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
@@ -2618,10 +2618,10 @@
         <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D141" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2632,7 +2632,7 @@
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
@@ -2646,7 +2646,7 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -2660,7 +2660,7 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
@@ -2674,7 +2674,7 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
@@ -2688,7 +2688,7 @@
         <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
@@ -2702,7 +2702,7 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
@@ -2716,10 +2716,10 @@
         <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D148" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2730,10 +2730,10 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2744,7 +2744,7 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D150" t="s">
         <v>7</v>
@@ -2758,7 +2758,7 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
@@ -2814,7 +2814,7 @@
         <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
         <v>5</v>
@@ -2828,7 +2828,7 @@
         <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
@@ -2842,7 +2842,7 @@
         <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D157" t="s">
         <v>7</v>
@@ -2856,7 +2856,7 @@
         <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D158" t="s">
         <v>7</v>
@@ -2870,7 +2870,7 @@
         <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D159" t="s">
         <v>7</v>
@@ -2884,7 +2884,7 @@
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D160" t="s">
         <v>7</v>
@@ -2898,7 +2898,7 @@
         <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
@@ -2912,7 +2912,7 @@
         <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
@@ -2926,10 +2926,10 @@
         <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2940,7 +2940,7 @@
         <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
@@ -2954,7 +2954,7 @@
         <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
@@ -2968,7 +2968,7 @@
         <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
@@ -2982,7 +2982,7 @@
         <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
@@ -2996,7 +2996,7 @@
         <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
@@ -3010,7 +3010,7 @@
         <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
@@ -3024,7 +3024,7 @@
         <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
@@ -3038,7 +3038,7 @@
         <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
@@ -3052,7 +3052,7 @@
         <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
@@ -3066,7 +3066,7 @@
         <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
@@ -3080,7 +3080,7 @@
         <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -3094,7 +3094,7 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
@@ -3108,10 +3108,10 @@
         <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3122,10 +3122,10 @@
         <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3136,7 +3136,7 @@
         <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
@@ -3150,7 +3150,7 @@
         <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D179" t="s">
         <v>7</v>
@@ -3164,7 +3164,7 @@
         <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -3178,7 +3178,7 @@
         <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
@@ -3192,10 +3192,10 @@
         <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3206,7 +3206,7 @@
         <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
@@ -3220,7 +3220,7 @@
         <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D184" t="s">
         <v>7</v>
@@ -3234,10 +3234,10 @@
         <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D185" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3248,7 +3248,7 @@
         <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
@@ -3265,7 +3265,7 @@
         <v>11</v>
       </c>
       <c r="D187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3290,7 +3290,7 @@
         <v>10</v>
       </c>
       <c r="C189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D189" t="s">
         <v>7</v>
@@ -3304,7 +3304,7 @@
         <v>10</v>
       </c>
       <c r="C190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
@@ -3318,7 +3318,7 @@
         <v>10</v>
       </c>
       <c r="C191" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
@@ -3332,7 +3332,7 @@
         <v>10</v>
       </c>
       <c r="C192" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
@@ -3346,7 +3346,7 @@
         <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D193" t="s">
         <v>5</v>
@@ -3360,10 +3360,10 @@
         <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D194" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3374,7 +3374,7 @@
         <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D195" t="s">
         <v>7</v>
@@ -3388,7 +3388,7 @@
         <v>10</v>
       </c>
       <c r="C196" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
@@ -3402,7 +3402,7 @@
         <v>10</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D197" t="s">
         <v>7</v>
@@ -3416,7 +3416,7 @@
         <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D198" t="s">
         <v>7</v>
@@ -3430,7 +3430,7 @@
         <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
         <v>7</v>
@@ -3444,7 +3444,7 @@
         <v>10</v>
       </c>
       <c r="C200" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D200" t="s">
         <v>7</v>
@@ -3458,7 +3458,7 @@
         <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D201" t="s">
         <v>7</v>
@@ -3472,7 +3472,7 @@
         <v>10</v>
       </c>
       <c r="C202" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D202" t="s">
         <v>7</v>
@@ -3486,7 +3486,7 @@
         <v>10</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D203" t="s">
         <v>7</v>
@@ -3500,10 +3500,10 @@
         <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D204" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3514,10 +3514,10 @@
         <v>10</v>
       </c>
       <c r="C205" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D205" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3528,7 +3528,7 @@
         <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D206" t="s">
         <v>7</v>
@@ -3542,7 +3542,7 @@
         <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D207" t="s">
         <v>7</v>
@@ -3556,7 +3556,7 @@
         <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D208" t="s">
         <v>7</v>
@@ -3570,7 +3570,7 @@
         <v>10</v>
       </c>
       <c r="C209" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D209" t="s">
         <v>7</v>
@@ -3584,10 +3584,10 @@
         <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D210" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3598,7 +3598,7 @@
         <v>10</v>
       </c>
       <c r="C211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D211" t="s">
         <v>7</v>
@@ -3612,7 +3612,7 @@
         <v>10</v>
       </c>
       <c r="C212" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D212" t="s">
         <v>7</v>
@@ -3626,7 +3626,7 @@
         <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D213" t="s">
         <v>7</v>
@@ -3640,7 +3640,7 @@
         <v>10</v>
       </c>
       <c r="C214" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D214" t="s">
         <v>7</v>
@@ -3654,7 +3654,7 @@
         <v>10</v>
       </c>
       <c r="C215" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D215" t="s">
         <v>7</v>
@@ -3668,7 +3668,7 @@
         <v>10</v>
       </c>
       <c r="C216" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D216" t="s">
         <v>7</v>
@@ -3682,7 +3682,7 @@
         <v>10</v>
       </c>
       <c r="C217" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D217" t="s">
         <v>7</v>
@@ -3696,7 +3696,7 @@
         <v>10</v>
       </c>
       <c r="C218" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
@@ -3710,7 +3710,7 @@
         <v>10</v>
       </c>
       <c r="C219" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D219" t="s">
         <v>7</v>
@@ -3724,7 +3724,7 @@
         <v>10</v>
       </c>
       <c r="C220" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D220" t="s">
         <v>7</v>
@@ -3741,7 +3741,7 @@
         <v>12</v>
       </c>
       <c r="D221" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3752,7 +3752,7 @@
         <v>11</v>
       </c>
       <c r="C222" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
@@ -3766,10 +3766,10 @@
         <v>11</v>
       </c>
       <c r="C223" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D223" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3780,10 +3780,10 @@
         <v>11</v>
       </c>
       <c r="C224" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D224" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3794,10 +3794,10 @@
         <v>11</v>
       </c>
       <c r="C225" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D225" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3808,10 +3808,10 @@
         <v>11</v>
       </c>
       <c r="C226" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D226" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3822,10 +3822,10 @@
         <v>11</v>
       </c>
       <c r="C227" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D227" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3836,10 +3836,10 @@
         <v>11</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D228" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3850,10 +3850,10 @@
         <v>11</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D229" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3864,10 +3864,10 @@
         <v>11</v>
       </c>
       <c r="C230" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D230" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3878,10 +3878,10 @@
         <v>11</v>
       </c>
       <c r="C231" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="C232" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="C233" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D233" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3920,7 +3920,7 @@
         <v>11</v>
       </c>
       <c r="C234" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D234" t="s">
         <v>7</v>
@@ -3934,10 +3934,10 @@
         <v>11</v>
       </c>
       <c r="C235" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D235" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3948,10 +3948,10 @@
         <v>11</v>
       </c>
       <c r="C236" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D236" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3962,10 +3962,10 @@
         <v>11</v>
       </c>
       <c r="C237" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D237" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3976,10 +3976,10 @@
         <v>11</v>
       </c>
       <c r="C238" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D238" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3990,10 +3990,10 @@
         <v>11</v>
       </c>
       <c r="C239" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D239" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4004,10 +4004,10 @@
         <v>11</v>
       </c>
       <c r="C240" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D240" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4018,7 +4018,7 @@
         <v>11</v>
       </c>
       <c r="C241" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D241" t="s">
         <v>7</v>
@@ -4032,7 +4032,7 @@
         <v>11</v>
       </c>
       <c r="C242" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D242" t="s">
         <v>7</v>
@@ -4046,10 +4046,10 @@
         <v>11</v>
       </c>
       <c r="C243" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D243" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4060,7 +4060,7 @@
         <v>11</v>
       </c>
       <c r="C244" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D244" t="s">
         <v>7</v>
@@ -4074,7 +4074,7 @@
         <v>11</v>
       </c>
       <c r="C245" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D245" t="s">
         <v>7</v>
@@ -4088,7 +4088,7 @@
         <v>11</v>
       </c>
       <c r="C246" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D246" t="s">
         <v>7</v>
@@ -4102,7 +4102,7 @@
         <v>11</v>
       </c>
       <c r="C247" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D247" t="s">
         <v>7</v>
@@ -4116,7 +4116,7 @@
         <v>11</v>
       </c>
       <c r="C248" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D248" t="s">
         <v>7</v>
@@ -4130,7 +4130,7 @@
         <v>11</v>
       </c>
       <c r="C249" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D249" t="s">
         <v>7</v>
@@ -4144,10 +4144,10 @@
         <v>11</v>
       </c>
       <c r="C250" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D250" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4158,10 +4158,10 @@
         <v>11</v>
       </c>
       <c r="C251" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D251" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4172,7 +4172,7 @@
         <v>11</v>
       </c>
       <c r="C252" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D252" t="s">
         <v>7</v>
@@ -4186,7 +4186,7 @@
         <v>11</v>
       </c>
       <c r="C253" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D253" t="s">
         <v>7</v>
@@ -4200,10 +4200,10 @@
         <v>12</v>
       </c>
       <c r="C254" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D254" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4214,10 +4214,10 @@
         <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D255" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4228,10 +4228,10 @@
         <v>12</v>
       </c>
       <c r="C256" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D256" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4242,7 +4242,7 @@
         <v>12</v>
       </c>
       <c r="C257" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D257" t="s">
         <v>7</v>
@@ -4256,7 +4256,7 @@
         <v>12</v>
       </c>
       <c r="C258" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D258" t="s">
         <v>7</v>
@@ -4270,7 +4270,7 @@
         <v>12</v>
       </c>
       <c r="C259" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D259" t="s">
         <v>7</v>
@@ -4284,7 +4284,7 @@
         <v>12</v>
       </c>
       <c r="C260" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D260" t="s">
         <v>7</v>
@@ -4298,7 +4298,7 @@
         <v>12</v>
       </c>
       <c r="C261" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D261" t="s">
         <v>7</v>
@@ -4312,7 +4312,7 @@
         <v>12</v>
       </c>
       <c r="C262" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D262" t="s">
         <v>7</v>
@@ -4326,7 +4326,7 @@
         <v>12</v>
       </c>
       <c r="C263" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D263" t="s">
         <v>7</v>
@@ -4340,7 +4340,7 @@
         <v>12</v>
       </c>
       <c r="C264" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D264" t="s">
         <v>7</v>
@@ -4354,7 +4354,7 @@
         <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D265" t="s">
         <v>7</v>
@@ -4368,7 +4368,7 @@
         <v>12</v>
       </c>
       <c r="C266" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D266" t="s">
         <v>7</v>
@@ -4382,7 +4382,7 @@
         <v>12</v>
       </c>
       <c r="C267" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D267" t="s">
         <v>7</v>
@@ -4396,7 +4396,7 @@
         <v>12</v>
       </c>
       <c r="C268" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D268" t="s">
         <v>7</v>
@@ -4410,7 +4410,7 @@
         <v>12</v>
       </c>
       <c r="C269" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D269" t="s">
         <v>7</v>
@@ -4424,7 +4424,7 @@
         <v>12</v>
       </c>
       <c r="C270" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D270" t="s">
         <v>7</v>
@@ -4438,7 +4438,7 @@
         <v>12</v>
       </c>
       <c r="C271" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D271" t="s">
         <v>7</v>
@@ -4452,7 +4452,7 @@
         <v>12</v>
       </c>
       <c r="C272" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D272" t="s">
         <v>7</v>
@@ -4466,7 +4466,7 @@
         <v>12</v>
       </c>
       <c r="C273" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D273" t="s">
         <v>7</v>
@@ -4480,7 +4480,7 @@
         <v>12</v>
       </c>
       <c r="C274" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D274" t="s">
         <v>7</v>
@@ -4494,7 +4494,7 @@
         <v>12</v>
       </c>
       <c r="C275" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D275" t="s">
         <v>7</v>
@@ -4508,7 +4508,7 @@
         <v>12</v>
       </c>
       <c r="C276" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D276" t="s">
         <v>7</v>
@@ -4522,7 +4522,7 @@
         <v>12</v>
       </c>
       <c r="C277" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D277" t="s">
         <v>7</v>
@@ -4536,7 +4536,7 @@
         <v>12</v>
       </c>
       <c r="C278" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D278" t="s">
         <v>7</v>
@@ -4550,7 +4550,7 @@
         <v>12</v>
       </c>
       <c r="C279" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D279" t="s">
         <v>7</v>
@@ -4564,7 +4564,7 @@
         <v>12</v>
       </c>
       <c r="C280" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D280" t="s">
         <v>7</v>
@@ -4578,7 +4578,7 @@
         <v>12</v>
       </c>
       <c r="C281" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D281" t="s">
         <v>7</v>
@@ -4592,10 +4592,10 @@
         <v>12</v>
       </c>
       <c r="C282" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D282" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4606,7 +4606,7 @@
         <v>12</v>
       </c>
       <c r="C283" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D283" t="s">
         <v>5</v>
@@ -4620,7 +4620,7 @@
         <v>12</v>
       </c>
       <c r="C284" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D284" t="s">
         <v>7</v>
@@ -4634,7 +4634,7 @@
         <v>12</v>
       </c>
       <c r="C285" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D285" t="s">
         <v>7</v>
@@ -4645,13 +4645,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C286" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D286" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4659,10 +4659,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C287" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D287" t="s">
         <v>7</v>
@@ -4673,10 +4673,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C288" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D288" t="s">
         <v>7</v>
@@ -4687,10 +4687,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C289" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D289" t="s">
         <v>5</v>
@@ -4701,10 +4701,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C290" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D290" t="s">
         <v>7</v>
@@ -4715,10 +4715,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C291" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D291" t="s">
         <v>7</v>
@@ -4729,10 +4729,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C292" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D292" t="s">
         <v>7</v>
@@ -4743,10 +4743,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C293" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D293" t="s">
         <v>5</v>
@@ -4757,10 +4757,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C294" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D294" t="s">
         <v>7</v>
@@ -4771,10 +4771,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C295" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D295" t="s">
         <v>7</v>
@@ -4785,10 +4785,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C296" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D296" t="s">
         <v>7</v>
@@ -4799,10 +4799,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C297" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D297" t="s">
         <v>7</v>
@@ -4813,10 +4813,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C298" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D298" t="s">
         <v>7</v>
@@ -4827,13 +4827,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C299" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D299" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4841,10 +4841,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C300" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D300" t="s">
         <v>7</v>
@@ -4855,13 +4855,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C301" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D301" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4869,10 +4869,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C302" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D302" t="s">
         <v>7</v>
@@ -4883,13 +4883,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C303" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D303" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4897,10 +4897,10 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C304" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D304" t="s">
         <v>7</v>
@@ -4911,10 +4911,10 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C305" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D305" t="s">
         <v>7</v>
@@ -4925,13 +4925,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C306" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D306" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4939,10 +4939,10 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C307" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D307" t="s">
         <v>7</v>
@@ -4953,10 +4953,10 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C308" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D308" t="s">
         <v>7</v>
@@ -4967,10 +4967,10 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C309" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D309" t="s">
         <v>7</v>
@@ -4981,10 +4981,10 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C310" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D310" t="s">
         <v>7</v>
@@ -4995,13 +4995,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C311" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D311" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5009,10 +5009,10 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C312" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D312" t="s">
         <v>7</v>
@@ -5023,10 +5023,10 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C313" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D313" t="s">
         <v>7</v>
@@ -5037,13 +5037,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C314" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D314" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5051,13 +5051,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C315" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D315" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5065,10 +5065,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C316" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D316" t="s">
         <v>7</v>
@@ -5079,10 +5079,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C317" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D317" t="s">
         <v>7</v>
@@ -5093,10 +5093,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C318" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D318" t="s">
         <v>7</v>
@@ -5107,13 +5107,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C319" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D319" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5121,13 +5121,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C320" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D320" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5135,13 +5135,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C321" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D321" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -5149,10 +5149,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C322" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D322" t="s">
         <v>7</v>
@@ -5163,10 +5163,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C323" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D323" t="s">
         <v>5</v>
@@ -5177,10 +5177,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C324" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D324" t="s">
         <v>7</v>
@@ -5191,10 +5191,10 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C325" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D325" t="s">
         <v>7</v>
@@ -5205,13 +5205,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C326" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D326" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -5219,10 +5219,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C327" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D327" t="s">
         <v>7</v>
@@ -5233,10 +5233,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C328" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D328" t="s">
         <v>7</v>
@@ -5247,13 +5247,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C329" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D329" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5261,13 +5261,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C330" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D330" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5275,13 +5275,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C331" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D331" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5289,10 +5289,10 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C332" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D332" t="s">
         <v>5</v>
@@ -5303,13 +5303,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C333" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D333" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5317,10 +5317,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C334" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D334" t="s">
         <v>7</v>
@@ -5331,10 +5331,10 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C335" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D335" t="s">
         <v>7</v>
@@ -5345,13 +5345,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C336" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D336" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5359,10 +5359,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C337" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D337" t="s">
         <v>7</v>
@@ -5373,10 +5373,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C338" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D338" t="s">
         <v>7</v>
@@ -5387,10 +5387,10 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C339" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D339" t="s">
         <v>7</v>
@@ -5401,10 +5401,10 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C340" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D340" t="s">
         <v>7</v>
@@ -5415,10 +5415,10 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C341" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D341" t="s">
         <v>7</v>
@@ -5429,10 +5429,10 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C342" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D342" t="s">
         <v>7</v>
@@ -5443,13 +5443,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C343" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D343" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5457,13 +5457,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C344" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D344" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5471,10 +5471,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C345" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D345" t="s">
         <v>7</v>
@@ -5485,10 +5485,10 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C346" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D346" t="s">
         <v>7</v>
@@ -5499,10 +5499,10 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C347" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D347" t="s">
         <v>7</v>
@@ -5513,10 +5513,10 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C348" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D348" t="s">
         <v>7</v>
@@ -5527,10 +5527,10 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C349" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D349" t="s">
         <v>7</v>
@@ -5541,13 +5541,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C350" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D350" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5555,10 +5555,10 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C351" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D351" t="s">
         <v>7</v>
@@ -5569,10 +5569,10 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C352" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D352" t="s">
         <v>7</v>
@@ -5583,10 +5583,10 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C353" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D353" t="s">
         <v>7</v>
@@ -5597,10 +5597,10 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C354" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D354" t="s">
         <v>7</v>
@@ -5611,10 +5611,10 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C355" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D355" t="s">
         <v>7</v>
@@ -5625,10 +5625,10 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C356" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D356" t="s">
         <v>7</v>
@@ -5639,13 +5639,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C357" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D357" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5653,10 +5653,10 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C358" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D358" t="s">
         <v>7</v>
@@ -5667,10 +5667,10 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C359" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D359" t="s">
         <v>7</v>
@@ -5681,13 +5681,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C360" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D360" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5695,10 +5695,10 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C361" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D361" t="s">
         <v>81</v>
@@ -5709,10 +5709,10 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C362" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D362" t="s">
         <v>7</v>
@@ -5723,10 +5723,10 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C363" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D363" t="s">
         <v>7</v>
@@ -5737,10 +5737,10 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C364" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D364" t="s">
         <v>7</v>
@@ -5751,10 +5751,10 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C365" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D365" t="s">
         <v>7</v>
@@ -5765,10 +5765,10 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C366" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D366" t="s">
         <v>7</v>
@@ -5779,10 +5779,10 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C367" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D367" t="s">
         <v>7</v>
@@ -5793,10 +5793,10 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C368" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D368" t="s">
         <v>7</v>
@@ -5807,10 +5807,10 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C369" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D369" t="s">
         <v>7</v>
@@ -5821,10 +5821,10 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C370" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D370" t="s">
         <v>7</v>
@@ -5835,10 +5835,10 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C371" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D371" t="s">
         <v>7</v>
@@ -5849,10 +5849,10 @@
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C372" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D372" t="s">
         <v>7</v>
@@ -5863,10 +5863,10 @@
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C373" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D373" t="s">
         <v>7</v>
@@ -5877,10 +5877,10 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C374" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D374" t="s">
         <v>7</v>
@@ -5891,10 +5891,10 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C375" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D375" t="s">
         <v>7</v>
@@ -5905,10 +5905,10 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C376" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D376" t="s">
         <v>7</v>
@@ -5919,10 +5919,10 @@
         <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C377" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D377" t="s">
         <v>7</v>
@@ -5933,10 +5933,10 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C378" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D378" t="s">
         <v>5</v>
@@ -5947,10 +5947,10 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C379" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D379" t="s">
         <v>7</v>
@@ -5961,10 +5961,10 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C380" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D380" t="s">
         <v>7</v>
@@ -5975,10 +5975,10 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C381" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D381" t="s">
         <v>7</v>
@@ -5989,10 +5989,10 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C382" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D382" t="s">
         <v>7</v>
@@ -6003,10 +6003,10 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C383" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D383" t="s">
         <v>7</v>
@@ -6017,10 +6017,10 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C384" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D384" t="s">
         <v>7</v>
@@ -6031,13 +6031,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C385" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D385" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -6045,10 +6045,10 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C386" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D386" t="s">
         <v>7</v>
@@ -6059,10 +6059,10 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C387" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D387" t="s">
         <v>7</v>
@@ -6073,13 +6073,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C388" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D388" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -6087,13 +6087,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C389" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D389" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6101,10 +6101,10 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C390" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D390" t="s">
         <v>7</v>
@@ -6115,10 +6115,10 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C391" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D391" t="s">
         <v>7</v>
@@ -6129,10 +6129,10 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C392" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D392" t="s">
         <v>7</v>
@@ -6143,10 +6143,10 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C393" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D393" t="s">
         <v>7</v>
@@ -6157,10 +6157,10 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C394" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D394" t="s">
         <v>7</v>
@@ -6171,10 +6171,10 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C395" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D395" t="s">
         <v>7</v>
@@ -6185,10 +6185,10 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C396" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D396" t="s">
         <v>7</v>
@@ -6199,10 +6199,10 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C397" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D397" t="s">
         <v>7</v>
@@ -6213,10 +6213,10 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C398" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D398" t="s">
         <v>7</v>
@@ -6227,10 +6227,10 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C399" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D399" t="s">
         <v>7</v>
@@ -6241,10 +6241,10 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C400" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D400" t="s">
         <v>7</v>
@@ -6255,10 +6255,10 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C401" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D401" t="s">
         <v>7</v>
@@ -6269,10 +6269,10 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C402" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D402" t="s">
         <v>7</v>
@@ -6283,10 +6283,10 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C403" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D403" t="s">
         <v>7</v>
@@ -6297,13 +6297,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C404" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D404" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6311,13 +6311,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C405" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D405" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6325,10 +6325,10 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C406" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D406" t="s">
         <v>7</v>
@@ -6339,13 +6339,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C407" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D407" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6353,10 +6353,10 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C408" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D408" t="s">
         <v>7</v>
@@ -6367,13 +6367,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C409" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D409" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6381,13 +6381,13 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C410" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D410" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6395,10 +6395,10 @@
         <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C411" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D411" t="s">
         <v>5</v>
@@ -6409,13 +6409,13 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C412" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D412" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6423,13 +6423,13 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C413" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D413" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6437,13 +6437,13 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C414" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D414" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6451,13 +6451,13 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C415" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D415" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6465,13 +6465,13 @@
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C416" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D416" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6479,13 +6479,13 @@
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C417" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D417" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6493,10 +6493,10 @@
         <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C418" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D418" t="s">
         <v>7</v>
@@ -6507,10 +6507,10 @@
         <v>417</v>
       </c>
       <c r="B419" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C419" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D419" t="s">
         <v>7</v>
@@ -6521,13 +6521,13 @@
         <v>418</v>
       </c>
       <c r="B420" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C420" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D420" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6535,10 +6535,10 @@
         <v>419</v>
       </c>
       <c r="B421" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C421" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D421" t="s">
         <v>7</v>
@@ -6549,10 +6549,10 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C422" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D422" t="s">
         <v>7</v>
@@ -6563,10 +6563,10 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C423" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D423" t="s">
         <v>7</v>
@@ -6577,10 +6577,10 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C424" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D424" t="s">
         <v>7</v>
@@ -6591,10 +6591,10 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C425" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D425" t="s">
         <v>7</v>
@@ -6605,10 +6605,10 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C426" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D426" t="s">
         <v>7</v>
@@ -6619,10 +6619,10 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C427" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D427" t="s">
         <v>7</v>
@@ -6633,13 +6633,13 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C428" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D428" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6647,10 +6647,10 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C429" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D429" t="s">
         <v>7</v>
@@ -6661,10 +6661,10 @@
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C430" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D430" t="s">
         <v>7</v>
@@ -6675,13 +6675,13 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C431" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D431" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6689,10 +6689,10 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C432" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D432" t="s">
         <v>5</v>
@@ -6703,13 +6703,13 @@
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C433" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D433" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6717,13 +6717,13 @@
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C434" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D434" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6731,13 +6731,13 @@
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C435" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D435" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6745,13 +6745,13 @@
         <v>434</v>
       </c>
       <c r="B436" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C436" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D436" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6759,10 +6759,10 @@
         <v>435</v>
       </c>
       <c r="B437" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C437" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D437" t="s">
         <v>7</v>
@@ -6773,10 +6773,10 @@
         <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C438" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D438" t="s">
         <v>59</v>
@@ -6787,13 +6787,13 @@
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C439" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D439" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6801,13 +6801,13 @@
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C440" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D440" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6815,13 +6815,13 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C441" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D441" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6829,13 +6829,13 @@
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C442" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D442" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6843,10 +6843,10 @@
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C443" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D443" t="s">
         <v>7</v>
@@ -6857,10 +6857,10 @@
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C444" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D444" t="s">
         <v>7</v>
@@ -6871,10 +6871,10 @@
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C445" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D445" t="s">
         <v>7</v>
@@ -6885,13 +6885,13 @@
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C446" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D446" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6899,10 +6899,10 @@
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C447" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D447" t="s">
         <v>7</v>
@@ -6913,10 +6913,10 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C448" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D448" t="s">
         <v>7</v>
@@ -6927,10 +6927,10 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C449" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D449" t="s">
         <v>7</v>
@@ -6941,10 +6941,10 @@
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C450" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D450" t="s">
         <v>7</v>
@@ -6955,10 +6955,10 @@
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C451" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D451" t="s">
         <v>7</v>
@@ -6969,10 +6969,10 @@
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C452" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D452" t="s">
         <v>7</v>
@@ -6983,10 +6983,10 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C453" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D453" t="s">
         <v>7</v>
@@ -6997,10 +6997,10 @@
         <v>452</v>
       </c>
       <c r="B454" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C454" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D454" t="s">
         <v>7</v>
@@ -7011,10 +7011,10 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C455" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D455" t="s">
         <v>7</v>
@@ -7025,10 +7025,10 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C456" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D456" t="s">
         <v>7</v>
@@ -7039,10 +7039,10 @@
         <v>455</v>
       </c>
       <c r="B457" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C457" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D457" t="s">
         <v>7</v>
@@ -7053,10 +7053,10 @@
         <v>456</v>
       </c>
       <c r="B458" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C458" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D458" t="s">
         <v>7</v>
@@ -7067,10 +7067,10 @@
         <v>457</v>
       </c>
       <c r="B459" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C459" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D459" t="s">
         <v>5</v>
@@ -7081,10 +7081,10 @@
         <v>458</v>
       </c>
       <c r="B460" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C460" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D460" t="s">
         <v>7</v>
@@ -7095,10 +7095,10 @@
         <v>459</v>
       </c>
       <c r="B461" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C461" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D461" t="s">
         <v>7</v>
@@ -7109,10 +7109,10 @@
         <v>460</v>
       </c>
       <c r="B462" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C462" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D462" t="s">
         <v>7</v>
@@ -7123,13 +7123,13 @@
         <v>461</v>
       </c>
       <c r="B463" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C463" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D463" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -7137,13 +7137,13 @@
         <v>462</v>
       </c>
       <c r="B464" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C464" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D464" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -7151,13 +7151,13 @@
         <v>463</v>
       </c>
       <c r="B465" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C465" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D465" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -7165,13 +7165,13 @@
         <v>464</v>
       </c>
       <c r="B466" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C466" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D466" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -7179,13 +7179,13 @@
         <v>465</v>
       </c>
       <c r="B467" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C467" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D467" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -7193,13 +7193,13 @@
         <v>466</v>
       </c>
       <c r="B468" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C468" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D468" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -7207,10 +7207,10 @@
         <v>467</v>
       </c>
       <c r="B469" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C469" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D469" t="s">
         <v>7</v>
@@ -7221,13 +7221,13 @@
         <v>468</v>
       </c>
       <c r="B470" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C470" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D470" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -7235,10 +7235,10 @@
         <v>469</v>
       </c>
       <c r="B471" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C471" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D471" t="s">
         <v>7</v>
@@ -7249,10 +7249,10 @@
         <v>470</v>
       </c>
       <c r="B472" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C472" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D472" t="s">
         <v>7</v>
@@ -7263,10 +7263,10 @@
         <v>471</v>
       </c>
       <c r="B473" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C473" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D473" t="s">
         <v>7</v>
@@ -7277,10 +7277,10 @@
         <v>472</v>
       </c>
       <c r="B474" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C474" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D474" t="s">
         <v>7</v>
@@ -7291,10 +7291,10 @@
         <v>473</v>
       </c>
       <c r="B475" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C475" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D475" t="s">
         <v>7</v>
@@ -7305,10 +7305,10 @@
         <v>474</v>
       </c>
       <c r="B476" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C476" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D476" t="s">
         <v>7</v>
@@ -7319,10 +7319,10 @@
         <v>475</v>
       </c>
       <c r="B477" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C477" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D477" t="s">
         <v>7</v>
@@ -7333,10 +7333,10 @@
         <v>476</v>
       </c>
       <c r="B478" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C478" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D478" t="s">
         <v>7</v>
@@ -7347,10 +7347,10 @@
         <v>477</v>
       </c>
       <c r="B479" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C479" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D479" t="s">
         <v>7</v>
@@ -7361,10 +7361,10 @@
         <v>478</v>
       </c>
       <c r="B480" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C480" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D480" t="s">
         <v>7</v>
@@ -7375,10 +7375,10 @@
         <v>479</v>
       </c>
       <c r="B481" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C481" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D481" t="s">
         <v>7</v>
@@ -7389,13 +7389,13 @@
         <v>480</v>
       </c>
       <c r="B482" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C482" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D482" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7403,13 +7403,13 @@
         <v>481</v>
       </c>
       <c r="B483" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C483" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D483" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7417,13 +7417,13 @@
         <v>482</v>
       </c>
       <c r="B484" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C484" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D484" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7431,13 +7431,13 @@
         <v>483</v>
       </c>
       <c r="B485" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C485" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D485" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7445,10 +7445,10 @@
         <v>484</v>
       </c>
       <c r="B486" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C486" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D486" t="s">
         <v>7</v>
@@ -7459,10 +7459,10 @@
         <v>485</v>
       </c>
       <c r="B487" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C487" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D487" t="s">
         <v>7</v>
@@ -7473,10 +7473,10 @@
         <v>486</v>
       </c>
       <c r="B488" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C488" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D488" t="s">
         <v>7</v>
@@ -7487,13 +7487,13 @@
         <v>487</v>
       </c>
       <c r="B489" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C489" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D489" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7501,13 +7501,13 @@
         <v>488</v>
       </c>
       <c r="B490" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C490" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D490" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7515,10 +7515,10 @@
         <v>489</v>
       </c>
       <c r="B491" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C491" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D491" t="s">
         <v>7</v>
@@ -7529,10 +7529,10 @@
         <v>490</v>
       </c>
       <c r="B492" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C492" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D492" t="s">
         <v>7</v>
@@ -7543,10 +7543,10 @@
         <v>491</v>
       </c>
       <c r="B493" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C493" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D493" t="s">
         <v>7</v>
@@ -7557,10 +7557,10 @@
         <v>492</v>
       </c>
       <c r="B494" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C494" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D494" t="s">
         <v>7</v>
@@ -7571,10 +7571,10 @@
         <v>493</v>
       </c>
       <c r="B495" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C495" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D495" t="s">
         <v>5</v>
@@ -7585,10 +7585,10 @@
         <v>494</v>
       </c>
       <c r="B496" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C496" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D496" t="s">
         <v>7</v>
@@ -7599,10 +7599,10 @@
         <v>495</v>
       </c>
       <c r="B497" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C497" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D497" t="s">
         <v>7</v>
@@ -7613,10 +7613,10 @@
         <v>496</v>
       </c>
       <c r="B498" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C498" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D498" t="s">
         <v>7</v>
@@ -7627,10 +7627,10 @@
         <v>497</v>
       </c>
       <c r="B499" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C499" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D499" t="s">
         <v>7</v>
@@ -7641,10 +7641,10 @@
         <v>498</v>
       </c>
       <c r="B500" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C500" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D500" t="s">
         <v>7</v>
@@ -7655,10 +7655,10 @@
         <v>499</v>
       </c>
       <c r="B501" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C501" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D501" t="s">
         <v>7</v>
@@ -7669,10 +7669,10 @@
         <v>500</v>
       </c>
       <c r="B502" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C502" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D502" t="s">
         <v>7</v>
@@ -7683,10 +7683,10 @@
         <v>501</v>
       </c>
       <c r="B503" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C503" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D503" t="s">
         <v>7</v>
@@ -7697,10 +7697,10 @@
         <v>502</v>
       </c>
       <c r="B504" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C504" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D504" t="s">
         <v>7</v>
@@ -7711,10 +7711,10 @@
         <v>503</v>
       </c>
       <c r="B505" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C505" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D505" t="s">
         <v>7</v>
@@ -7725,13 +7725,13 @@
         <v>504</v>
       </c>
       <c r="B506" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C506" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D506" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7739,13 +7739,13 @@
         <v>505</v>
       </c>
       <c r="B507" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C507" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D507" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7753,13 +7753,13 @@
         <v>506</v>
       </c>
       <c r="B508" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C508" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D508" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7767,10 +7767,10 @@
         <v>507</v>
       </c>
       <c r="B509" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C509" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D509" t="s">
         <v>7</v>
@@ -7781,13 +7781,13 @@
         <v>508</v>
       </c>
       <c r="B510" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C510" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D510" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7795,13 +7795,13 @@
         <v>509</v>
       </c>
       <c r="B511" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C511" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D511" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7809,13 +7809,13 @@
         <v>510</v>
       </c>
       <c r="B512" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C512" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D512" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -7823,13 +7823,13 @@
         <v>511</v>
       </c>
       <c r="B513" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C513" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D513" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -7837,10 +7837,10 @@
         <v>512</v>
       </c>
       <c r="B514" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C514" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D514" t="s">
         <v>5</v>
@@ -7851,13 +7851,13 @@
         <v>513</v>
       </c>
       <c r="B515" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C515" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D515" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -7865,10 +7865,10 @@
         <v>514</v>
       </c>
       <c r="B516" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C516" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D516" t="s">
         <v>7</v>
@@ -7879,10 +7879,10 @@
         <v>515</v>
       </c>
       <c r="B517" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C517" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D517" t="s">
         <v>7</v>
@@ -7893,13 +7893,13 @@
         <v>516</v>
       </c>
       <c r="B518" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C518" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D518" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -7907,10 +7907,10 @@
         <v>517</v>
       </c>
       <c r="B519" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C519" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D519" t="s">
         <v>7</v>
@@ -7921,10 +7921,10 @@
         <v>518</v>
       </c>
       <c r="B520" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C520" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D520" t="s">
         <v>7</v>
@@ -7935,10 +7935,10 @@
         <v>519</v>
       </c>
       <c r="B521" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C521" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D521" t="s">
         <v>7</v>
@@ -7949,10 +7949,10 @@
         <v>520</v>
       </c>
       <c r="B522" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C522" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D522" t="s">
         <v>7</v>
@@ -7963,10 +7963,10 @@
         <v>521</v>
       </c>
       <c r="B523" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C523" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D523" t="s">
         <v>7</v>
@@ -7977,10 +7977,10 @@
         <v>522</v>
       </c>
       <c r="B524" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C524" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D524" t="s">
         <v>7</v>
@@ -7991,10 +7991,10 @@
         <v>523</v>
       </c>
       <c r="B525" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C525" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D525" t="s">
         <v>7</v>
@@ -8005,10 +8005,10 @@
         <v>524</v>
       </c>
       <c r="B526" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C526" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D526" t="s">
         <v>7</v>
@@ -8019,10 +8019,10 @@
         <v>525</v>
       </c>
       <c r="B527" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C527" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D527" t="s">
         <v>7</v>
@@ -8033,10 +8033,10 @@
         <v>526</v>
       </c>
       <c r="B528" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C528" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D528" t="s">
         <v>7</v>
@@ -8047,13 +8047,13 @@
         <v>527</v>
       </c>
       <c r="B529" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C529" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D529" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -8061,13 +8061,13 @@
         <v>528</v>
       </c>
       <c r="B530" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C530" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D530" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -8075,13 +8075,13 @@
         <v>529</v>
       </c>
       <c r="B531" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C531" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D531" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -8089,13 +8089,13 @@
         <v>530</v>
       </c>
       <c r="B532" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C532" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D532" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -8103,13 +8103,13 @@
         <v>531</v>
       </c>
       <c r="B533" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C533" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D533" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -8117,10 +8117,10 @@
         <v>532</v>
       </c>
       <c r="B534" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C534" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D534" t="s">
         <v>7</v>
@@ -8131,13 +8131,13 @@
         <v>533</v>
       </c>
       <c r="B535" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C535" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D535" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -8145,13 +8145,13 @@
         <v>534</v>
       </c>
       <c r="B536" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C536" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D536" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -8159,10 +8159,10 @@
         <v>535</v>
       </c>
       <c r="B537" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C537" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D537" t="s">
         <v>7</v>
@@ -8173,10 +8173,10 @@
         <v>536</v>
       </c>
       <c r="B538" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C538" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D538" t="s">
         <v>7</v>
@@ -8187,10 +8187,10 @@
         <v>537</v>
       </c>
       <c r="B539" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C539" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D539" t="s">
         <v>7</v>
@@ -8201,13 +8201,13 @@
         <v>538</v>
       </c>
       <c r="B540" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C540" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D540" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -8215,10 +8215,10 @@
         <v>539</v>
       </c>
       <c r="B541" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C541" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D541" t="s">
         <v>7</v>
@@ -8229,10 +8229,10 @@
         <v>540</v>
       </c>
       <c r="B542" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C542" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D542" t="s">
         <v>7</v>
@@ -8243,10 +8243,10 @@
         <v>541</v>
       </c>
       <c r="B543" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C543" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D543" t="s">
         <v>7</v>
@@ -8257,10 +8257,10 @@
         <v>542</v>
       </c>
       <c r="B544" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C544" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D544" t="s">
         <v>7</v>
@@ -8271,10 +8271,10 @@
         <v>543</v>
       </c>
       <c r="B545" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C545" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D545" t="s">
         <v>7</v>
@@ -8285,10 +8285,10 @@
         <v>544</v>
       </c>
       <c r="B546" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C546" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D546" t="s">
         <v>7</v>
@@ -8299,10 +8299,10 @@
         <v>545</v>
       </c>
       <c r="B547" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C547" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D547" t="s">
         <v>7</v>
@@ -8313,10 +8313,10 @@
         <v>546</v>
       </c>
       <c r="B548" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C548" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D548" t="s">
         <v>7</v>
@@ -8327,10 +8327,10 @@
         <v>547</v>
       </c>
       <c r="B549" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C549" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D549" t="s">
         <v>7</v>
@@ -8341,10 +8341,10 @@
         <v>548</v>
       </c>
       <c r="B550" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C550" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D550" t="s">
         <v>7</v>
@@ -8355,13 +8355,13 @@
         <v>549</v>
       </c>
       <c r="B551" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C551" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D551" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -8369,10 +8369,10 @@
         <v>550</v>
       </c>
       <c r="B552" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C552" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D552" t="s">
         <v>7</v>
@@ -8383,10 +8383,10 @@
         <v>551</v>
       </c>
       <c r="B553" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C553" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D553" t="s">
         <v>7</v>
@@ -8397,10 +8397,10 @@
         <v>552</v>
       </c>
       <c r="B554" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C554" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D554" t="s">
         <v>7</v>
@@ -8411,10 +8411,10 @@
         <v>553</v>
       </c>
       <c r="B555" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C555" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D555" t="s">
         <v>5</v>
@@ -8425,10 +8425,10 @@
         <v>554</v>
       </c>
       <c r="B556" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C556" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D556" t="s">
         <v>5</v>
@@ -8439,10 +8439,10 @@
         <v>555</v>
       </c>
       <c r="B557" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C557" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D557" t="s">
         <v>7</v>
@@ -8453,10 +8453,10 @@
         <v>556</v>
       </c>
       <c r="B558" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C558" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D558" t="s">
         <v>7</v>
@@ -8467,10 +8467,10 @@
         <v>557</v>
       </c>
       <c r="B559" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C559" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D559" t="s">
         <v>7</v>
@@ -8481,10 +8481,10 @@
         <v>558</v>
       </c>
       <c r="B560" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C560" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D560" t="s">
         <v>7</v>
@@ -8495,10 +8495,10 @@
         <v>559</v>
       </c>
       <c r="B561" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C561" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D561" t="s">
         <v>5</v>
@@ -8509,10 +8509,10 @@
         <v>560</v>
       </c>
       <c r="B562" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C562" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D562" t="s">
         <v>7</v>
@@ -8523,10 +8523,10 @@
         <v>561</v>
       </c>
       <c r="B563" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C563" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D563" t="s">
         <v>7</v>
@@ -8537,10 +8537,10 @@
         <v>562</v>
       </c>
       <c r="B564" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C564" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D564" t="s">
         <v>7</v>
@@ -8551,10 +8551,10 @@
         <v>563</v>
       </c>
       <c r="B565" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C565" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D565" t="s">
         <v>7</v>
@@ -8565,10 +8565,10 @@
         <v>564</v>
       </c>
       <c r="B566" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C566" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D566" t="s">
         <v>7</v>
@@ -8579,10 +8579,10 @@
         <v>565</v>
       </c>
       <c r="B567" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C567" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D567" t="s">
         <v>7</v>
@@ -8593,10 +8593,10 @@
         <v>566</v>
       </c>
       <c r="B568" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C568" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D568" t="s">
         <v>7</v>
@@ -8607,10 +8607,10 @@
         <v>567</v>
       </c>
       <c r="B569" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C569" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D569" t="s">
         <v>7</v>
@@ -8621,10 +8621,10 @@
         <v>568</v>
       </c>
       <c r="B570" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C570" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D570" t="s">
         <v>7</v>
@@ -8635,10 +8635,10 @@
         <v>569</v>
       </c>
       <c r="B571" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C571" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D571" t="s">
         <v>7</v>
@@ -8649,10 +8649,10 @@
         <v>570</v>
       </c>
       <c r="B572" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C572" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D572" t="s">
         <v>7</v>
@@ -8663,13 +8663,13 @@
         <v>571</v>
       </c>
       <c r="B573" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C573" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D573" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -8677,13 +8677,13 @@
         <v>572</v>
       </c>
       <c r="B574" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C574" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D574" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -8691,13 +8691,13 @@
         <v>573</v>
       </c>
       <c r="B575" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C575" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D575" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -8705,13 +8705,13 @@
         <v>574</v>
       </c>
       <c r="B576" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C576" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D576" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -8719,10 +8719,10 @@
         <v>575</v>
       </c>
       <c r="B577" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C577" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D577" t="s">
         <v>7</v>
@@ -8733,13 +8733,13 @@
         <v>576</v>
       </c>
       <c r="B578" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C578" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D578" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -8747,10 +8747,10 @@
         <v>577</v>
       </c>
       <c r="B579" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C579" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D579" t="s">
         <v>7</v>
@@ -8761,10 +8761,10 @@
         <v>578</v>
       </c>
       <c r="B580" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C580" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D580" t="s">
         <v>7</v>
@@ -8775,13 +8775,13 @@
         <v>579</v>
       </c>
       <c r="B581" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C581" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D581" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -8789,10 +8789,10 @@
         <v>580</v>
       </c>
       <c r="B582" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C582" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D582" t="s">
         <v>7</v>
@@ -8803,10 +8803,10 @@
         <v>581</v>
       </c>
       <c r="B583" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C583" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D583" t="s">
         <v>7</v>
@@ -8817,10 +8817,10 @@
         <v>582</v>
       </c>
       <c r="B584" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C584" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D584" t="s">
         <v>7</v>
@@ -8831,10 +8831,10 @@
         <v>583</v>
       </c>
       <c r="B585" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C585" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D585" t="s">
         <v>7</v>
@@ -8845,10 +8845,10 @@
         <v>584</v>
       </c>
       <c r="B586" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C586" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D586" t="s">
         <v>7</v>
@@ -8859,10 +8859,10 @@
         <v>585</v>
       </c>
       <c r="B587" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C587" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D587" t="s">
         <v>7</v>
@@ -8873,10 +8873,10 @@
         <v>586</v>
       </c>
       <c r="B588" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C588" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D588" t="s">
         <v>7</v>
@@ -8887,10 +8887,10 @@
         <v>587</v>
       </c>
       <c r="B589" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C589" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D589" t="s">
         <v>7</v>
@@ -8901,10 +8901,10 @@
         <v>588</v>
       </c>
       <c r="B590" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C590" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D590" t="s">
         <v>7</v>
@@ -8915,10 +8915,10 @@
         <v>589</v>
       </c>
       <c r="B591" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C591" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D591" t="s">
         <v>7</v>
@@ -8929,10 +8929,10 @@
         <v>590</v>
       </c>
       <c r="B592" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C592" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D592" t="s">
         <v>5</v>
@@ -8943,10 +8943,10 @@
         <v>591</v>
       </c>
       <c r="B593" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C593" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D593" t="s">
         <v>7</v>
@@ -8957,10 +8957,10 @@
         <v>592</v>
       </c>
       <c r="B594" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C594" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D594" t="s">
         <v>7</v>
@@ -8971,10 +8971,10 @@
         <v>593</v>
       </c>
       <c r="B595" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C595" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D595" t="s">
         <v>7</v>
@@ -8985,13 +8985,13 @@
         <v>594</v>
       </c>
       <c r="B596" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C596" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D596" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -8999,10 +8999,10 @@
         <v>595</v>
       </c>
       <c r="B597" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C597" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D597" t="s">
         <v>7</v>
@@ -9013,10 +9013,10 @@
         <v>596</v>
       </c>
       <c r="B598" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C598" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D598" t="s">
         <v>7</v>
@@ -9027,10 +9027,10 @@
         <v>597</v>
       </c>
       <c r="B599" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C599" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D599" t="s">
         <v>7</v>
@@ -9041,10 +9041,10 @@
         <v>598</v>
       </c>
       <c r="B600" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C600" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D600" t="s">
         <v>7</v>
@@ -9055,10 +9055,10 @@
         <v>599</v>
       </c>
       <c r="B601" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C601" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D601" t="s">
         <v>7</v>
@@ -9069,10 +9069,10 @@
         <v>600</v>
       </c>
       <c r="B602" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C602" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D602" t="s">
         <v>7</v>
@@ -9083,10 +9083,10 @@
         <v>601</v>
       </c>
       <c r="B603" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C603" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D603" t="s">
         <v>7</v>
@@ -9097,10 +9097,10 @@
         <v>602</v>
       </c>
       <c r="B604" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C604" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D604" t="s">
         <v>7</v>
@@ -9111,10 +9111,10 @@
         <v>603</v>
       </c>
       <c r="B605" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C605" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D605" t="s">
         <v>7</v>
@@ -9125,10 +9125,10 @@
         <v>604</v>
       </c>
       <c r="B606" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C606" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D606" t="s">
         <v>7</v>
@@ -9139,10 +9139,10 @@
         <v>605</v>
       </c>
       <c r="B607" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C607" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D607" t="s">
         <v>7</v>
@@ -9153,10 +9153,10 @@
         <v>606</v>
       </c>
       <c r="B608" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C608" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D608" t="s">
         <v>7</v>
@@ -9167,10 +9167,10 @@
         <v>607</v>
       </c>
       <c r="B609" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C609" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D609" t="s">
         <v>7</v>
@@ -9181,10 +9181,10 @@
         <v>608</v>
       </c>
       <c r="B610" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C610" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D610" t="s">
         <v>7</v>
@@ -9195,13 +9195,13 @@
         <v>609</v>
       </c>
       <c r="B611" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C611" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D611" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -9209,13 +9209,13 @@
         <v>610</v>
       </c>
       <c r="B612" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C612" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D612" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -9223,13 +9223,13 @@
         <v>611</v>
       </c>
       <c r="B613" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C613" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D613" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -9237,13 +9237,13 @@
         <v>612</v>
       </c>
       <c r="B614" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C614" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D614" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -9251,13 +9251,13 @@
         <v>613</v>
       </c>
       <c r="B615" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C615" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D615" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -9265,10 +9265,10 @@
         <v>614</v>
       </c>
       <c r="B616" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C616" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D616" t="s">
         <v>7</v>
@@ -9279,13 +9279,13 @@
         <v>615</v>
       </c>
       <c r="B617" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C617" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D617" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -9293,10 +9293,10 @@
         <v>616</v>
       </c>
       <c r="B618" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C618" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D618" t="s">
         <v>7</v>
@@ -9307,10 +9307,10 @@
         <v>617</v>
       </c>
       <c r="B619" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C619" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D619" t="s">
         <v>7</v>
@@ -9321,10 +9321,10 @@
         <v>618</v>
       </c>
       <c r="B620" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C620" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D620" t="s">
         <v>7</v>
@@ -9335,10 +9335,10 @@
         <v>619</v>
       </c>
       <c r="B621" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C621" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D621" t="s">
         <v>7</v>
@@ -9349,10 +9349,10 @@
         <v>620</v>
       </c>
       <c r="B622" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C622" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D622" t="s">
         <v>7</v>
@@ -9363,10 +9363,10 @@
         <v>621</v>
       </c>
       <c r="B623" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C623" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D623" t="s">
         <v>7</v>
@@ -9377,10 +9377,10 @@
         <v>622</v>
       </c>
       <c r="B624" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C624" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D624" t="s">
         <v>7</v>
@@ -9391,10 +9391,10 @@
         <v>623</v>
       </c>
       <c r="B625" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C625" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D625" t="s">
         <v>7</v>
@@ -9405,10 +9405,10 @@
         <v>624</v>
       </c>
       <c r="B626" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C626" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D626" t="s">
         <v>7</v>
@@ -9419,10 +9419,10 @@
         <v>625</v>
       </c>
       <c r="B627" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C627" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D627" t="s">
         <v>7</v>
@@ -9433,10 +9433,10 @@
         <v>626</v>
       </c>
       <c r="B628" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C628" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D628" t="s">
         <v>7</v>
@@ -9447,13 +9447,13 @@
         <v>627</v>
       </c>
       <c r="B629" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C629" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D629" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -9461,13 +9461,13 @@
         <v>628</v>
       </c>
       <c r="B630" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C630" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D630" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -9475,13 +9475,13 @@
         <v>629</v>
       </c>
       <c r="B631" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C631" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D631" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -9489,13 +9489,13 @@
         <v>630</v>
       </c>
       <c r="B632" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C632" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D632" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -9503,10 +9503,10 @@
         <v>631</v>
       </c>
       <c r="B633" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C633" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D633" t="s">
         <v>7</v>
@@ -9517,13 +9517,13 @@
         <v>632</v>
       </c>
       <c r="B634" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C634" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D634" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -9531,13 +9531,13 @@
         <v>633</v>
       </c>
       <c r="B635" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C635" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D635" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -9545,10 +9545,10 @@
         <v>634</v>
       </c>
       <c r="B636" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C636" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D636" t="s">
         <v>7</v>
@@ -9559,10 +9559,10 @@
         <v>635</v>
       </c>
       <c r="B637" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C637" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D637" t="s">
         <v>7</v>
@@ -9573,10 +9573,10 @@
         <v>636</v>
       </c>
       <c r="B638" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C638" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D638" t="s">
         <v>7</v>
@@ -9587,10 +9587,10 @@
         <v>637</v>
       </c>
       <c r="B639" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C639" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D639" t="s">
         <v>7</v>
@@ -9601,10 +9601,10 @@
         <v>638</v>
       </c>
       <c r="B640" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C640" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D640" t="s">
         <v>5</v>
@@ -9615,10 +9615,10 @@
         <v>639</v>
       </c>
       <c r="B641" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C641" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D641" t="s">
         <v>7</v>
@@ -9629,13 +9629,13 @@
         <v>640</v>
       </c>
       <c r="B642" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C642" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D642" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -9643,13 +9643,13 @@
         <v>641</v>
       </c>
       <c r="B643" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C643" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D643" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -9657,10 +9657,10 @@
         <v>642</v>
       </c>
       <c r="B644" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C644" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D644" t="s">
         <v>7</v>
@@ -9671,10 +9671,10 @@
         <v>643</v>
       </c>
       <c r="B645" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C645" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D645" t="s">
         <v>7</v>
@@ -9685,10 +9685,10 @@
         <v>644</v>
       </c>
       <c r="B646" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C646" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D646" t="s">
         <v>5</v>
@@ -9699,13 +9699,13 @@
         <v>645</v>
       </c>
       <c r="B647" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C647" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D647" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -9713,10 +9713,10 @@
         <v>646</v>
       </c>
       <c r="B648" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C648" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D648" t="s">
         <v>7</v>
@@ -9727,10 +9727,10 @@
         <v>647</v>
       </c>
       <c r="B649" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C649" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D649" t="s">
         <v>7</v>
@@ -9741,10 +9741,10 @@
         <v>648</v>
       </c>
       <c r="B650" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C650" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D650" t="s">
         <v>7</v>
@@ -9755,13 +9755,13 @@
         <v>649</v>
       </c>
       <c r="B651" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C651" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D651" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -9769,10 +9769,10 @@
         <v>650</v>
       </c>
       <c r="B652" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C652" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D652" t="s">
         <v>7</v>
@@ -9783,10 +9783,10 @@
         <v>651</v>
       </c>
       <c r="B653" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C653" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D653" t="s">
         <v>7</v>
@@ -9797,10 +9797,10 @@
         <v>652</v>
       </c>
       <c r="B654" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C654" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D654" t="s">
         <v>7</v>
@@ -9811,10 +9811,10 @@
         <v>653</v>
       </c>
       <c r="B655" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C655" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D655" t="s">
         <v>7</v>
@@ -9825,10 +9825,10 @@
         <v>654</v>
       </c>
       <c r="B656" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C656" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D656" t="s">
         <v>7</v>
@@ -9839,10 +9839,10 @@
         <v>655</v>
       </c>
       <c r="B657" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C657" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D657" t="s">
         <v>7</v>
@@ -9853,10 +9853,10 @@
         <v>656</v>
       </c>
       <c r="B658" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C658" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D658" t="s">
         <v>7</v>
@@ -9867,10 +9867,10 @@
         <v>657</v>
       </c>
       <c r="B659" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C659" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D659" t="s">
         <v>7</v>
@@ -9881,10 +9881,10 @@
         <v>658</v>
       </c>
       <c r="B660" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C660" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D660" t="s">
         <v>7</v>
@@ -9895,10 +9895,10 @@
         <v>659</v>
       </c>
       <c r="B661" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C661" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D661" t="s">
         <v>7</v>
@@ -9909,13 +9909,13 @@
         <v>660</v>
       </c>
       <c r="B662" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C662" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D662" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -9923,13 +9923,13 @@
         <v>661</v>
       </c>
       <c r="B663" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C663" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D663" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -9937,10 +9937,10 @@
         <v>662</v>
       </c>
       <c r="B664" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C664" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D664" t="s">
         <v>7</v>
@@ -9951,13 +9951,13 @@
         <v>663</v>
       </c>
       <c r="B665" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C665" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D665" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -9965,13 +9965,13 @@
         <v>664</v>
       </c>
       <c r="B666" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C666" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D666" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -9979,10 +9979,10 @@
         <v>665</v>
       </c>
       <c r="B667" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C667" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D667" t="s">
         <v>7</v>
@@ -9993,10 +9993,10 @@
         <v>666</v>
       </c>
       <c r="B668" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C668" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D668" t="s">
         <v>7</v>
@@ -10007,10 +10007,10 @@
         <v>667</v>
       </c>
       <c r="B669" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C669" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D669" t="s">
         <v>7</v>
@@ -10021,10 +10021,10 @@
         <v>668</v>
       </c>
       <c r="B670" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C670" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D670" t="s">
         <v>7</v>
@@ -10035,13 +10035,13 @@
         <v>669</v>
       </c>
       <c r="B671" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C671" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D671" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -10049,10 +10049,10 @@
         <v>670</v>
       </c>
       <c r="B672" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C672" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D672" t="s">
         <v>7</v>
@@ -10063,10 +10063,10 @@
         <v>671</v>
       </c>
       <c r="B673" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C673" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D673" t="s">
         <v>7</v>
@@ -10077,10 +10077,10 @@
         <v>672</v>
       </c>
       <c r="B674" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C674" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D674" t="s">
         <v>7</v>
@@ -10091,10 +10091,10 @@
         <v>673</v>
       </c>
       <c r="B675" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C675" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D675" t="s">
         <v>7</v>
@@ -10105,10 +10105,10 @@
         <v>674</v>
       </c>
       <c r="B676" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C676" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D676" t="s">
         <v>7</v>
@@ -10119,13 +10119,13 @@
         <v>675</v>
       </c>
       <c r="B677" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C677" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D677" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -10133,10 +10133,10 @@
         <v>676</v>
       </c>
       <c r="B678" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C678" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D678" t="s">
         <v>7</v>
@@ -10147,13 +10147,13 @@
         <v>677</v>
       </c>
       <c r="B679" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C679" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D679" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -10161,10 +10161,10 @@
         <v>678</v>
       </c>
       <c r="B680" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C680" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D680" t="s">
         <v>7</v>
@@ -10175,10 +10175,10 @@
         <v>679</v>
       </c>
       <c r="B681" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C681" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D681" t="s">
         <v>7</v>
@@ -10189,10 +10189,10 @@
         <v>680</v>
       </c>
       <c r="B682" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C682" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D682" t="s">
         <v>7</v>
@@ -10203,10 +10203,10 @@
         <v>681</v>
       </c>
       <c r="B683" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C683" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D683" t="s">
         <v>7</v>
@@ -10217,10 +10217,10 @@
         <v>682</v>
       </c>
       <c r="B684" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C684" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D684" t="s">
         <v>7</v>
@@ -10231,13 +10231,13 @@
         <v>683</v>
       </c>
       <c r="B685" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C685" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D685" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -10245,10 +10245,10 @@
         <v>684</v>
       </c>
       <c r="B686" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C686" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D686" t="s">
         <v>7</v>
@@ -10259,10 +10259,10 @@
         <v>685</v>
       </c>
       <c r="B687" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C687" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D687" t="s">
         <v>7</v>
@@ -10273,13 +10273,13 @@
         <v>686</v>
       </c>
       <c r="B688" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C688" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D688" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -10287,10 +10287,10 @@
         <v>687</v>
       </c>
       <c r="B689" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C689" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D689" t="s">
         <v>7</v>
@@ -10301,10 +10301,10 @@
         <v>688</v>
       </c>
       <c r="B690" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C690" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D690" t="s">
         <v>7</v>
@@ -10315,10 +10315,10 @@
         <v>689</v>
       </c>
       <c r="B691" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C691" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D691" t="s">
         <v>7</v>
@@ -10329,10 +10329,10 @@
         <v>690</v>
       </c>
       <c r="B692" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C692" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D692" t="s">
         <v>7</v>
@@ -10343,10 +10343,10 @@
         <v>691</v>
       </c>
       <c r="B693" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C693" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D693" t="s">
         <v>92</v>
@@ -10357,10 +10357,10 @@
         <v>692</v>
       </c>
       <c r="B694" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C694" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D694" t="s">
         <v>7</v>
@@ -10371,10 +10371,10 @@
         <v>693</v>
       </c>
       <c r="B695" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C695" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D695" t="s">
         <v>7</v>
@@ -10385,10 +10385,10 @@
         <v>694</v>
       </c>
       <c r="B696" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C696" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D696" t="s">
         <v>7</v>
@@ -10399,10 +10399,10 @@
         <v>695</v>
       </c>
       <c r="B697" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C697" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D697" t="s">
         <v>7</v>
@@ -10413,10 +10413,10 @@
         <v>696</v>
       </c>
       <c r="B698" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C698" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D698" t="s">
         <v>7</v>
@@ -10427,10 +10427,10 @@
         <v>697</v>
       </c>
       <c r="B699" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C699" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D699" t="s">
         <v>7</v>
@@ -10441,13 +10441,13 @@
         <v>698</v>
       </c>
       <c r="B700" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C700" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D700" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -10455,13 +10455,13 @@
         <v>699</v>
       </c>
       <c r="B701" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C701" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D701" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -10469,10 +10469,10 @@
         <v>700</v>
       </c>
       <c r="B702" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C702" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D702" t="s">
         <v>7</v>
@@ -10483,10 +10483,10 @@
         <v>701</v>
       </c>
       <c r="B703" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C703" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D703" t="s">
         <v>7</v>
@@ -10497,10 +10497,10 @@
         <v>702</v>
       </c>
       <c r="B704" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C704" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D704" t="s">
         <v>7</v>
@@ -10511,10 +10511,10 @@
         <v>703</v>
       </c>
       <c r="B705" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C705" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D705" t="s">
         <v>7</v>
@@ -10525,10 +10525,10 @@
         <v>704</v>
       </c>
       <c r="B706" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C706" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D706" t="s">
         <v>7</v>
@@ -10539,10 +10539,10 @@
         <v>705</v>
       </c>
       <c r="B707" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C707" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D707" t="s">
         <v>7</v>
@@ -10553,10 +10553,10 @@
         <v>706</v>
       </c>
       <c r="B708" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C708" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D708" t="s">
         <v>7</v>
@@ -10567,10 +10567,10 @@
         <v>707</v>
       </c>
       <c r="B709" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C709" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D709" t="s">
         <v>7</v>
@@ -10581,10 +10581,10 @@
         <v>708</v>
       </c>
       <c r="B710" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C710" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D710" t="s">
         <v>7</v>
@@ -10595,10 +10595,10 @@
         <v>709</v>
       </c>
       <c r="B711" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C711" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D711" t="s">
         <v>7</v>
@@ -10609,10 +10609,10 @@
         <v>710</v>
       </c>
       <c r="B712" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C712" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D712" t="s">
         <v>7</v>
@@ -10623,10 +10623,10 @@
         <v>711</v>
       </c>
       <c r="B713" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C713" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D713" t="s">
         <v>7</v>
@@ -10637,10 +10637,10 @@
         <v>712</v>
       </c>
       <c r="B714" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C714" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D714" t="s">
         <v>7</v>
@@ -10651,10 +10651,10 @@
         <v>713</v>
       </c>
       <c r="B715" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C715" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D715" t="s">
         <v>7</v>
@@ -10665,10 +10665,10 @@
         <v>714</v>
       </c>
       <c r="B716" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C716" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D716" t="s">
         <v>7</v>
@@ -10679,10 +10679,10 @@
         <v>715</v>
       </c>
       <c r="B717" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C717" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D717" t="s">
         <v>7</v>
@@ -10693,10 +10693,10 @@
         <v>716</v>
       </c>
       <c r="B718" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C718" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D718" t="s">
         <v>7</v>
@@ -10707,10 +10707,10 @@
         <v>717</v>
       </c>
       <c r="B719" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C719" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D719" t="s">
         <v>7</v>
@@ -10721,10 +10721,10 @@
         <v>718</v>
       </c>
       <c r="B720" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C720" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D720" t="s">
         <v>7</v>
@@ -10735,10 +10735,10 @@
         <v>719</v>
       </c>
       <c r="B721" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C721" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D721" t="s">
         <v>7</v>
@@ -10749,10 +10749,10 @@
         <v>720</v>
       </c>
       <c r="B722" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C722" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D722" t="s">
         <v>7</v>
@@ -10763,10 +10763,10 @@
         <v>721</v>
       </c>
       <c r="B723" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C723" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D723" t="s">
         <v>7</v>
@@ -10777,10 +10777,10 @@
         <v>722</v>
       </c>
       <c r="B724" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C724" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D724" t="s">
         <v>7</v>
@@ -10791,10 +10791,10 @@
         <v>723</v>
       </c>
       <c r="B725" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C725" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D725" t="s">
         <v>7</v>
@@ -10805,10 +10805,10 @@
         <v>724</v>
       </c>
       <c r="B726" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C726" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D726" t="s">
         <v>7</v>
@@ -10819,10 +10819,10 @@
         <v>725</v>
       </c>
       <c r="B727" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C727" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D727" t="s">
         <v>7</v>
@@ -10833,10 +10833,10 @@
         <v>726</v>
       </c>
       <c r="B728" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C728" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D728" t="s">
         <v>7</v>
@@ -10847,13 +10847,13 @@
         <v>727</v>
       </c>
       <c r="B729" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C729" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D729" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -10861,10 +10861,10 @@
         <v>728</v>
       </c>
       <c r="B730" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C730" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D730" t="s">
         <v>7</v>
@@ -10875,13 +10875,13 @@
         <v>729</v>
       </c>
       <c r="B731" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C731" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D731" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -10889,13 +10889,13 @@
         <v>730</v>
       </c>
       <c r="B732" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C732" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D732" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -10903,13 +10903,13 @@
         <v>731</v>
       </c>
       <c r="B733" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C733" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D733" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -10917,13 +10917,13 @@
         <v>732</v>
       </c>
       <c r="B734" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C734" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D734" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -10931,13 +10931,13 @@
         <v>733</v>
       </c>
       <c r="B735" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C735" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D735" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -10945,10 +10945,10 @@
         <v>734</v>
       </c>
       <c r="B736" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C736" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D736" t="s">
         <v>7</v>
@@ -10959,10 +10959,10 @@
         <v>735</v>
       </c>
       <c r="B737" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C737" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D737" t="s">
         <v>7</v>
@@ -10973,10 +10973,10 @@
         <v>736</v>
       </c>
       <c r="B738" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C738" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D738" t="s">
         <v>7</v>
@@ -10987,10 +10987,10 @@
         <v>737</v>
       </c>
       <c r="B739" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C739" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D739" t="s">
         <v>7</v>
@@ -11001,10 +11001,10 @@
         <v>738</v>
       </c>
       <c r="B740" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C740" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D740" t="s">
         <v>7</v>
@@ -11015,10 +11015,10 @@
         <v>739</v>
       </c>
       <c r="B741" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C741" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D741" t="s">
         <v>7</v>
@@ -11029,10 +11029,10 @@
         <v>740</v>
       </c>
       <c r="B742" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C742" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D742" t="s">
         <v>7</v>
@@ -11043,10 +11043,10 @@
         <v>741</v>
       </c>
       <c r="B743" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C743" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D743" t="s">
         <v>7</v>
@@ -11057,10 +11057,10 @@
         <v>742</v>
       </c>
       <c r="B744" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C744" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D744" t="s">
         <v>7</v>
@@ -11071,10 +11071,10 @@
         <v>743</v>
       </c>
       <c r="B745" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C745" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D745" t="s">
         <v>7</v>
@@ -11085,10 +11085,10 @@
         <v>744</v>
       </c>
       <c r="B746" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C746" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D746" t="s">
         <v>7</v>
@@ -11099,10 +11099,10 @@
         <v>745</v>
       </c>
       <c r="B747" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C747" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D747" t="s">
         <v>7</v>
@@ -11113,10 +11113,10 @@
         <v>746</v>
       </c>
       <c r="B748" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C748" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D748" t="s">
         <v>7</v>
@@ -11127,10 +11127,10 @@
         <v>747</v>
       </c>
       <c r="B749" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C749" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D749" t="s">
         <v>7</v>
@@ -11141,10 +11141,10 @@
         <v>748</v>
       </c>
       <c r="B750" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C750" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D750" t="s">
         <v>7</v>
@@ -11155,10 +11155,10 @@
         <v>749</v>
       </c>
       <c r="B751" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C751" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D751" t="s">
         <v>7</v>
@@ -11169,10 +11169,10 @@
         <v>750</v>
       </c>
       <c r="B752" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C752" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D752" t="s">
         <v>7</v>
@@ -11183,10 +11183,10 @@
         <v>751</v>
       </c>
       <c r="B753" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C753" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D753" t="s">
         <v>93</v>
@@ -11197,10 +11197,10 @@
         <v>752</v>
       </c>
       <c r="B754" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C754" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D754" t="s">
         <v>7</v>
@@ -11211,10 +11211,10 @@
         <v>753</v>
       </c>
       <c r="B755" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C755" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D755" t="s">
         <v>7</v>
@@ -11225,10 +11225,10 @@
         <v>754</v>
       </c>
       <c r="B756" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C756" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D756" t="s">
         <v>7</v>
@@ -11239,10 +11239,10 @@
         <v>755</v>
       </c>
       <c r="B757" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C757" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D757" t="s">
         <v>7</v>
@@ -11253,10 +11253,10 @@
         <v>756</v>
       </c>
       <c r="B758" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C758" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D758" t="s">
         <v>7</v>
@@ -11267,10 +11267,10 @@
         <v>757</v>
       </c>
       <c r="B759" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C759" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D759" t="s">
         <v>7</v>
@@ -11281,10 +11281,10 @@
         <v>758</v>
       </c>
       <c r="B760" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C760" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D760" t="s">
         <v>7</v>
@@ -11295,10 +11295,10 @@
         <v>759</v>
       </c>
       <c r="B761" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C761" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D761" t="s">
         <v>7</v>
@@ -11309,10 +11309,10 @@
         <v>760</v>
       </c>
       <c r="B762" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C762" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D762" t="s">
         <v>7</v>
@@ -11323,10 +11323,10 @@
         <v>761</v>
       </c>
       <c r="B763" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C763" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D763" t="s">
         <v>7</v>
@@ -11337,10 +11337,10 @@
         <v>762</v>
       </c>
       <c r="B764" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C764" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D764" t="s">
         <v>7</v>
@@ -11351,10 +11351,10 @@
         <v>763</v>
       </c>
       <c r="B765" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C765" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D765" t="s">
         <v>7</v>
@@ -11365,10 +11365,10 @@
         <v>764</v>
       </c>
       <c r="B766" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C766" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D766" t="s">
         <v>7</v>
@@ -11379,10 +11379,10 @@
         <v>765</v>
       </c>
       <c r="B767" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C767" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D767" t="s">
         <v>7</v>
@@ -11393,10 +11393,10 @@
         <v>766</v>
       </c>
       <c r="B768" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C768" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D768" t="s">
         <v>7</v>
@@ -11407,10 +11407,10 @@
         <v>767</v>
       </c>
       <c r="B769" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C769" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D769" t="s">
         <v>7</v>
@@ -11421,13 +11421,13 @@
         <v>768</v>
       </c>
       <c r="B770" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C770" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D770" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -11435,10 +11435,10 @@
         <v>769</v>
       </c>
       <c r="B771" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C771" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D771" t="s">
         <v>7</v>
@@ -11449,10 +11449,10 @@
         <v>770</v>
       </c>
       <c r="B772" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C772" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D772" t="s">
         <v>7</v>
@@ -11463,10 +11463,10 @@
         <v>771</v>
       </c>
       <c r="B773" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C773" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D773" t="s">
         <v>7</v>
@@ -11477,13 +11477,13 @@
         <v>772</v>
       </c>
       <c r="B774" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C774" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D774" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -11491,10 +11491,10 @@
         <v>773</v>
       </c>
       <c r="B775" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C775" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D775" t="s">
         <v>7</v>
@@ -11505,13 +11505,13 @@
         <v>774</v>
       </c>
       <c r="B776" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C776" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D776" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -11519,10 +11519,10 @@
         <v>775</v>
       </c>
       <c r="B777" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C777" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D777" t="s">
         <v>7</v>
@@ -11533,10 +11533,10 @@
         <v>776</v>
       </c>
       <c r="B778" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C778" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D778" t="s">
         <v>7</v>
@@ -11547,10 +11547,10 @@
         <v>777</v>
       </c>
       <c r="B779" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C779" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D779" t="s">
         <v>7</v>
@@ -11561,10 +11561,10 @@
         <v>778</v>
       </c>
       <c r="B780" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C780" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D780" t="s">
         <v>7</v>
@@ -11575,10 +11575,10 @@
         <v>779</v>
       </c>
       <c r="B781" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C781" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D781" t="s">
         <v>7</v>
